--- a/DATA_goal/Junction_Flooding_385.xlsx
+++ b/DATA_goal/Junction_Flooding_385.xlsx
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -461,19 +461,19 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.08</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.81</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z3" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.02</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.99</v>
+        <v>49.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_385.xlsx
+++ b/DATA_goal/Junction_Flooding_385.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45066.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45066.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.98</v>
+        <v>14.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.35</v>
+        <v>10.168</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.953</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.55</v>
+        <v>29.448</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.08</v>
+        <v>25.375</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.29</v>
+        <v>10.912</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.81</v>
+        <v>36.224</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.51</v>
+        <v>16.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.26</v>
+        <v>7.314</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.09</v>
+        <v>10.821</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.64</v>
+        <v>12.151</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.7</v>
+        <v>13.314</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.86</v>
+        <v>3.415</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.89</v>
+        <v>10.177</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.64</v>
+        <v>16.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.6</v>
+        <v>8.377000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.522</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.409</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>158.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.74</v>
+        <v>30.246</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.51</v>
+        <v>10.276</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>20.176</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.78</v>
+        <v>11.423</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.75</v>
+        <v>1.346</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.19</v>
+        <v>18.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.98</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.75</v>
+        <v>7.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.36</v>
+        <v>10.348</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.72</v>
+        <v>12.769</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.69</v>
+        <v>32.674</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.35</v>
+        <v>5.474</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.64</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45066.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.62</v>
+        <v>19.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.38</v>
+        <v>14.236</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.927</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.44</v>
+        <v>41.281</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.89</v>
+        <v>34.782</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.31</v>
+        <v>15.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.4</v>
+        <v>57.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.77</v>
+        <v>22.951</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.56</v>
+        <v>10.318</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.22</v>
+        <v>15.278</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.35</v>
+        <v>16.771</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.4</v>
+        <v>18.016</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.44</v>
+        <v>4.789</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>14.526</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.13</v>
+        <v>21.977</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.51</v>
+        <v>12.018</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.463</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.9</v>
+        <v>221.328</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.57</v>
+        <v>41.984</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>14.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.76</v>
+        <v>28.246</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.65</v>
+        <v>15.315</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.922</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.02</v>
+        <v>27.9</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.07</v>
+        <v>12.193</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.87</v>
+        <v>10.914</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.35</v>
+        <v>13.396</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.4</v>
+        <v>17.632</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.36</v>
+        <v>51.957</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.81</v>
+        <v>7.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.34</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45066.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>10.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.91</v>
+        <v>7.43</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>112.68</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>6.89</v>
+        <v>30.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_385.xlsx
+++ b/DATA_goal/Junction_Flooding_385.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45066.50694444445</v>
+        <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.411</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.834</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.687</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.421</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.343</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.587</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.088</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.625</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.867</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.386</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.262</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.896</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.601</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.104</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.507</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.768</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.777</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.652</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.949</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.176</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.915</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.546</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.916</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.093</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.911</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.891</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.078</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.877</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.065</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45066.51388888889</v>
+        <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.34</v>
+        <v>5.982</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.168</v>
+        <v>4.347</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.953</v>
+        <v>1.303</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.448</v>
+        <v>13.548</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.375</v>
+        <v>10.084</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.912</v>
+        <v>4.285</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.224</v>
+        <v>18.814</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.327</v>
+        <v>7.508</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.314</v>
+        <v>3.258</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.821</v>
+        <v>4.088</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.151</v>
+        <v>5.639</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.314</v>
+        <v>5.695</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.415</v>
+        <v>1.865</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.177</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.27</v>
+        <v>6.645</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.377000000000001</v>
+        <v>4.601</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.522</v>
+        <v>1.057</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.409</v>
+        <v>0.367</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.19</v>
+        <v>67.072</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.246</v>
+        <v>13.744</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.276</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.176</v>
+        <v>8.722</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.423</v>
+        <v>4.778</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.346</v>
+        <v>0.747</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.2</v>
+        <v>10.194</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.739000000000001</v>
+        <v>3.985</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.99</v>
+        <v>3.746</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.348</v>
+        <v>4.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.769</v>
+        <v>5.718</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.318</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.674</v>
+        <v>17.687</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.474</v>
+        <v>2.349</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.188</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45066.52083333334</v>
+        <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.47</v>
+        <v>4.616</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.236</v>
+        <v>3.381</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.927</v>
+        <v>0.864</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.281</v>
+        <v>10.44</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.782</v>
+        <v>7.895</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.1</v>
+        <v>3.306</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.097</v>
+        <v>15.395</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.951</v>
+        <v>5.767</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.318</v>
+        <v>2.561</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.278</v>
+        <v>3.218</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.771</v>
+        <v>4.349</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.016</v>
+        <v>4.402</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.789</v>
+        <v>1.439</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.526</v>
+        <v>3.76</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.977</v>
+        <v>5.133</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.018</v>
+        <v>3.508</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.463</v>
+        <v>0.725</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.233</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.328</v>
+        <v>49.896</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.984</v>
+        <v>10.571</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.04</v>
+        <v>3.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.246</v>
+        <v>6.756</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.315</v>
+        <v>3.655</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.922</v>
+        <v>0.541</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.9</v>
+        <v>8.015000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.193</v>
+        <v>3.065</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.914</v>
+        <v>2.87</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.396</v>
+        <v>3.347</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.632</v>
+        <v>4.401</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.793</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.957</v>
+        <v>14.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.73</v>
+        <v>1.812</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.108</v>
+        <v>4.339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45066.52777777778</v>
+        <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.27</v>
+        <v>1.295</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.43</v>
+        <v>0.912</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.081</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>33.92</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.33</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.091</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.68</v>
+        <v>9.895</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.16</v>
+        <v>3.389</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.42</v>
+        <v>1.041</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.87</v>
+        <v>2.077</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>1.107</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1</v>
+        <v>0.175</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.91</v>
+        <v>3.735</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.78</v>
+        <v>0.954</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.18</v>
+        <v>1.094</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.26</v>
+        <v>1.318</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.99</v>
+        <v>6.894</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.01</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.93</v>
+        <v>1.307</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_385.xlsx
+++ b/DATA_goal/Junction_Flooding_385.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45066.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45066.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.982</v>
+        <v>14.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.347</v>
+        <v>10.168</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.303</v>
+        <v>0.953</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.548</v>
+        <v>29.448</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.084</v>
+        <v>25.375</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.285</v>
+        <v>10.912</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>18.814</v>
+        <v>36.224</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.508</v>
+        <v>16.327</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.258</v>
+        <v>7.314</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.088</v>
+        <v>10.821</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.639</v>
+        <v>12.151</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.695</v>
+        <v>13.314</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.865</v>
+        <v>3.415</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.888</v>
+        <v>10.177</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.645</v>
+        <v>16.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.601</v>
+        <v>8.377000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.057</v>
+        <v>0.522</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.367</v>
+        <v>0.409</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.072</v>
+        <v>158.19</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.744</v>
+        <v>30.246</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.511</v>
+        <v>10.276</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.722</v>
+        <v>20.176</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.778</v>
+        <v>11.423</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.747</v>
+        <v>1.346</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.194</v>
+        <v>18.2</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.985</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.746</v>
+        <v>7.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.358</v>
+        <v>10.348</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.718</v>
+        <v>12.769</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.687</v>
+        <v>32.674</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.349</v>
+        <v>5.474</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.641</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45066.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.616</v>
+        <v>19.47</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.381</v>
+        <v>14.236</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.864</v>
+        <v>0.927</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.44</v>
+        <v>41.281</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.895</v>
+        <v>34.782</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.306</v>
+        <v>15.1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.395</v>
+        <v>57.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.767</v>
+        <v>22.951</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.561</v>
+        <v>10.318</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.218</v>
+        <v>15.278</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.349</v>
+        <v>16.771</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.402</v>
+        <v>18.016</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.439</v>
+        <v>4.789</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.76</v>
+        <v>14.526</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.133</v>
+        <v>21.977</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.508</v>
+        <v>12.018</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.725</v>
+        <v>0.463</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.233</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>49.896</v>
+        <v>221.328</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>10.571</v>
+        <v>41.984</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.47</v>
+        <v>14.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.756</v>
+        <v>28.246</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.655</v>
+        <v>15.315</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.541</v>
+        <v>1.922</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.015000000000001</v>
+        <v>27.9</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.065</v>
+        <v>12.193</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.87</v>
+        <v>10.914</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.347</v>
+        <v>13.396</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.401</v>
+        <v>17.632</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.36</v>
+        <v>51.957</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.812</v>
+        <v>7.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.339</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45066.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.295</v>
+        <v>10.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.912</v>
+        <v>7.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.13</v>
+        <v>21.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.043</v>
+        <v>18.31</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.755</v>
+        <v>7.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.081</v>
+        <v>33.92</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.698</v>
+        <v>11.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.835</v>
+        <v>5.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.642</v>
+        <v>7.94</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.387</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.31</v>
+        <v>9.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.569</v>
+        <v>2.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>7.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.505</v>
+        <v>11.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.239</v>
+        <v>6.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.091</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.895</v>
+        <v>112.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.389</v>
+        <v>22.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>7.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.077</v>
+        <v>14.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.107</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.175</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.735</v>
+        <v>15.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>6.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.954</v>
+        <v>5.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.094</v>
+        <v>7.18</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.318</v>
+        <v>9.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.894</v>
+        <v>30.99</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.307</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
     </row>
   </sheetData>
